--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForCompare.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLTForCompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82DEDAB-7E5A-477C-997A-68CFE7A3D607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D6C21-74E4-4A6A-AFFC-6228B7A54439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO  ĐỐI TÁC</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO  ĐỐI TÁC - SO SÁNH</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="B1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:X6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,7 @@
   <sheetData>
     <row r="1" spans="2:33" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -641,10 +641,10 @@
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>0</v>
@@ -677,7 +677,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="19"/>
       <c r="V6" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="19"/>
